--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C670578-2A50-9C46-B4FC-7EFD8FD11B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40BB68D-67D3-F544-85F9-897BB678D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="785">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3272,10 +3272,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AU266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX277" sqref="AX277"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -9810,6 +9810,12 @@
       <c r="AK249" s="6"/>
       <c r="AL249" s="6"/>
       <c r="AM249" s="6"/>
+      <c r="AV249" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW249" s="6" t="s">
+        <v>654</v>
+      </c>
       <c r="AX249" s="6"/>
       <c r="AY249" s="6"/>
       <c r="AZ249" s="6"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EDBB9-3355-C543-918E-0B4BAC3FCC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E753958D-00D0-6842-9A08-2191844C17AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,10 +3273,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AT230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AU263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B243" sqref="B243"/>
+      <selection pane="bottomRight" activeCell="BA276" sqref="BA276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -8227,6 +8227,9 @@
       <c r="AX194" s="6" t="s">
         <v>780</v>
       </c>
+      <c r="AY194" s="1">
+        <v>3095</v>
+      </c>
     </row>
     <row r="195" spans="1:52" ht="39.75" customHeight="1">
       <c r="A195" s="1">
@@ -8250,6 +8253,9 @@
       <c r="AX195" s="6" t="s">
         <v>780</v>
       </c>
+      <c r="AY195" s="1">
+        <v>3095</v>
+      </c>
     </row>
     <row r="196" spans="1:52" ht="39.75" customHeight="1">
       <c r="A196" s="1">
@@ -8273,6 +8279,9 @@
       <c r="AX196" s="6" t="s">
         <v>780</v>
       </c>
+      <c r="AY196" s="1">
+        <v>3095</v>
+      </c>
     </row>
     <row r="197" spans="1:52" ht="39.75" customHeight="1">
       <c r="A197" s="1">
@@ -8422,7 +8431,9 @@
       <c r="AV202" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AW202" s="6"/>
+      <c r="AW202" s="1">
+        <v>3095</v>
+      </c>
       <c r="AX202" s="6"/>
     </row>
     <row r="203" spans="1:52" ht="39.75" customHeight="1">
@@ -10385,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:50" ht="39.75" customHeight="1">
+    <row r="273" spans="1:54" ht="39.75" customHeight="1">
       <c r="A273" s="1">
         <v>3094</v>
       </c>
@@ -10402,7 +10413,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="274" spans="1:50" ht="39.75" customHeight="1">
+    <row r="274" spans="1:54" ht="39.75" customHeight="1">
       <c r="A274" s="1">
         <v>3095</v>
       </c>
@@ -10424,8 +10435,20 @@
       <c r="AX274" s="1">
         <v>1048</v>
       </c>
-    </row>
-    <row r="275" spans="1:50" ht="39.75" customHeight="1">
+      <c r="AY274" s="1">
+        <v>3008</v>
+      </c>
+      <c r="AZ274" s="1">
+        <v>3009</v>
+      </c>
+      <c r="BA274" s="1">
+        <v>3010</v>
+      </c>
+      <c r="BB274" s="1">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="275" spans="1:54" ht="39.75" customHeight="1">
       <c r="A275" s="1">
         <v>3096</v>
       </c>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E753958D-00D0-6842-9A08-2191844C17AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1575CAF-34B3-D940-9261-751B2190E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,10 +3273,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AU263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AU187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA276" sqref="BA276"/>
+      <selection pane="bottomRight" activeCell="AZ203" sqref="AZ203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3960,6 +3960,9 @@
       <c r="AX16" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="AY16" s="1">
+        <v>3012</v>
+      </c>
     </row>
     <row r="17" spans="1:51" ht="39.75" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -8188,7 +8191,7 @@
       <c r="AW192" s="6"/>
       <c r="AX192" s="6"/>
     </row>
-    <row r="193" spans="1:52" ht="39.75" customHeight="1">
+    <row r="193" spans="1:53" ht="39.75" customHeight="1">
       <c r="A193" s="1">
         <v>3007</v>
       </c>
@@ -8205,7 +8208,7 @@
       <c r="AW193" s="6"/>
       <c r="AX193" s="6"/>
     </row>
-    <row r="194" spans="1:52" ht="39.75" customHeight="1">
+    <row r="194" spans="1:53" ht="39.75" customHeight="1">
       <c r="A194" s="1">
         <v>3008</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="195" spans="1:52" ht="39.75" customHeight="1">
+    <row r="195" spans="1:53" ht="39.75" customHeight="1">
       <c r="A195" s="1">
         <v>3009</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="196" spans="1:52" ht="39.75" customHeight="1">
+    <row r="196" spans="1:53" ht="39.75" customHeight="1">
       <c r="A196" s="1">
         <v>3010</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="197" spans="1:52" ht="39.75" customHeight="1">
+    <row r="197" spans="1:53" ht="39.75" customHeight="1">
       <c r="A197" s="1">
         <v>3011</v>
       </c>
@@ -8300,7 +8303,7 @@
       <c r="AW197" s="6"/>
       <c r="AX197" s="6"/>
     </row>
-    <row r="198" spans="1:52" ht="39.75" customHeight="1">
+    <row r="198" spans="1:53" ht="39.75" customHeight="1">
       <c r="A198" s="1">
         <v>3012</v>
       </c>
@@ -8328,8 +8331,11 @@
       <c r="AZ198" s="1">
         <v>3095</v>
       </c>
-    </row>
-    <row r="199" spans="1:52" ht="39.75" customHeight="1">
+      <c r="BA198" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:53" ht="39.75" customHeight="1">
       <c r="A199" s="1">
         <v>3013</v>
       </c>
@@ -8364,7 +8370,7 @@
       <c r="AW199" s="6"/>
       <c r="AX199" s="6"/>
     </row>
-    <row r="200" spans="1:52" ht="39.75" customHeight="1">
+    <row r="200" spans="1:53" ht="39.75" customHeight="1">
       <c r="A200" s="1">
         <v>3014</v>
       </c>
@@ -8396,7 +8402,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="201" spans="1:52" ht="39.75" customHeight="1">
+    <row r="201" spans="1:53" ht="39.75" customHeight="1">
       <c r="A201" s="1">
         <v>3015</v>
       </c>
@@ -8415,7 +8421,7 @@
       <c r="AW201" s="6"/>
       <c r="AX201" s="6"/>
     </row>
-    <row r="202" spans="1:52" ht="39.75" customHeight="1">
+    <row r="202" spans="1:53" ht="39.75" customHeight="1">
       <c r="A202" s="1">
         <v>3016</v>
       </c>
@@ -8436,7 +8442,7 @@
       </c>
       <c r="AX202" s="6"/>
     </row>
-    <row r="203" spans="1:52" ht="39.75" customHeight="1">
+    <row r="203" spans="1:53" ht="39.75" customHeight="1">
       <c r="A203" s="1">
         <v>3017</v>
       </c>
@@ -8468,7 +8474,7 @@
       <c r="AW203" s="6"/>
       <c r="AX203" s="6"/>
     </row>
-    <row r="204" spans="1:52" ht="39.75" customHeight="1">
+    <row r="204" spans="1:53" ht="39.75" customHeight="1">
       <c r="A204" s="1">
         <v>3018</v>
       </c>
@@ -8485,7 +8491,7 @@
       <c r="AW204" s="6"/>
       <c r="AX204" s="6"/>
     </row>
-    <row r="205" spans="1:52" ht="39.75" customHeight="1">
+    <row r="205" spans="1:53" ht="39.75" customHeight="1">
       <c r="A205" s="1">
         <v>3019</v>
       </c>
@@ -8505,7 +8511,7 @@
       <c r="AW205" s="6"/>
       <c r="AX205" s="6"/>
     </row>
-    <row r="206" spans="1:52" ht="39.75" customHeight="1">
+    <row r="206" spans="1:53" ht="39.75" customHeight="1">
       <c r="A206" s="1">
         <v>3020</v>
       </c>
@@ -8533,7 +8539,7 @@
       <c r="AW206" s="6"/>
       <c r="AX206" s="6"/>
     </row>
-    <row r="207" spans="1:52" ht="39.75" customHeight="1">
+    <row r="207" spans="1:53" ht="39.75" customHeight="1">
       <c r="A207" s="1">
         <v>3021</v>
       </c>
@@ -8561,7 +8567,7 @@
       <c r="AW207" s="6"/>
       <c r="AX207" s="6"/>
     </row>
-    <row r="208" spans="1:52" ht="39.75" customHeight="1">
+    <row r="208" spans="1:53" ht="39.75" customHeight="1">
       <c r="A208" s="1">
         <v>3022</v>
       </c>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1073378-BAD8-AB4A-9203-F652513C0FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07D32F-22A3-1447-A22C-7A52907EDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED07F2E-72A4-474F-BD60-C6298E00EB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2DD78-9B92-B643-9783-9A0EEF80B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,10 +3273,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AU185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ203" sqref="AZ203"/>
+      <selection pane="bottomRight" activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D57AB36-79AB-084B-9D3A-E142F52B6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14549D5F-33F7-2243-813E-71E0B7A39BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,7 +3273,7 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D213" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D266" sqref="D266"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14549D5F-33F7-2243-813E-71E0B7A39BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8B565-5130-EA40-848E-77C02E405570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="785">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2451,9 +2451,6 @@
     <t>3071</t>
   </si>
   <si>
-    <t>3072</t>
-  </si>
-  <si>
     <t>3014</t>
   </si>
   <si>
@@ -2643,12 +2640,6 @@
     <t>高难杂技</t>
   </si>
   <si>
-    <t>全属性&gt;20时全属性+10</t>
-  </si>
-  <si>
-    <t>(SPR&gt;20)&amp;(MNY&gt;20)&amp;(CHR&gt;20)&amp;(STR&gt;20)&amp;(INT&gt;20)</t>
-  </si>
-  <si>
     <t>制约E</t>
   </si>
   <si>
@@ -2854,6 +2845,12 @@
   </si>
   <si>
     <t>典</t>
+  </si>
+  <si>
+    <t>全属性&gt;15时全属性+10</t>
+  </si>
+  <si>
+    <t>(SPR&gt;15)&amp;(MNY&gt;15)&amp;(CHR&gt;15)&amp;(STR&gt;15)&amp;(INT&gt;15)</t>
   </si>
 </sst>
 </file>
@@ -3273,10 +3270,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D266" sqref="D266"/>
+      <selection pane="bottomRight" activeCell="G251" sqref="G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3857,7 +3854,7 @@
         <v>626</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3883,7 +3880,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3897,10 +3894,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3923,7 +3920,7 @@
         <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3943,10 +3940,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3972,7 +3969,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4003,10 +4000,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4268,16 +4265,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4368,7 +4365,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4472,10 +4469,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4506,7 +4503,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4562,7 +4559,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4660,7 +4657,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4683,7 +4680,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4706,7 +4703,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>439</v>
@@ -4732,7 +4729,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>440</v>
@@ -4755,7 +4752,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>441</v>
@@ -5049,7 +5046,7 @@
         <v>609</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>513</v>
@@ -5141,7 +5138,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>444</v>
@@ -5164,10 +5161,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5181,7 +5178,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>590</v>
@@ -5198,10 +5195,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5238,7 +5235,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -5261,7 +5258,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>446</v>
@@ -5284,7 +5281,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>447</v>
@@ -5307,7 +5304,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5330,7 +5327,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>427</v>
@@ -5376,7 +5373,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>448</v>
@@ -5411,7 +5408,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5443,7 +5440,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5490,7 +5487,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5517,7 +5514,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5541,7 +5538,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5886,7 +5883,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>454</v>
@@ -6045,10 +6042,10 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -6072,7 +6069,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6269,10 +6266,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6340,7 +6337,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6354,7 +6351,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>490</v>
@@ -6389,10 +6386,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6443,7 +6440,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6524,7 +6521,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6575,10 +6572,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -8076,10 +8073,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8096,10 +8093,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8116,10 +8113,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8151,7 +8148,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8160,10 +8157,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8199,7 +8196,7 @@
         <v>521</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8228,7 +8225,7 @@
         <v>595</v>
       </c>
       <c r="AX194" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
@@ -8239,7 +8236,7 @@
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>524</v>
@@ -8254,7 +8251,7 @@
         <v>595</v>
       </c>
       <c r="AX195" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
@@ -8268,7 +8265,7 @@
         <v>542</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -8280,7 +8277,7 @@
         <v>593</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
@@ -8291,10 +8288,10 @@
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8311,7 +8308,7 @@
         <v>525</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
@@ -8343,7 +8340,7 @@
         <v>526</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8393,10 +8390,10 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8429,7 +8426,7 @@
         <v>529</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
@@ -8450,7 +8447,7 @@
         <v>530</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8496,10 +8493,10 @@
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8777,7 +8774,7 @@
         <v>547</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8794,10 +8791,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8811,10 +8808,10 @@
         <v>3032</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="E218" s="1">
         <v>3</v>
@@ -8828,10 +8825,10 @@
         <v>3033</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8845,10 +8842,10 @@
         <v>3034</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8862,10 +8859,10 @@
         <v>3035</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E221" s="1">
         <v>0</v>
@@ -8896,7 +8893,7 @@
         <v>3039</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>567</v>
@@ -8930,7 +8927,7 @@
         <v>3041</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>570</v>
@@ -8967,7 +8964,7 @@
         <v>629</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E227" s="1">
         <v>2</v>
@@ -9548,7 +9545,7 @@
         <v>3056</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>644</v>
@@ -9655,7 +9652,7 @@
         <v>566</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E244" s="1">
         <v>0</v>
@@ -9731,7 +9728,7 @@
         <v>508</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
@@ -9748,7 +9745,7 @@
         <v>599</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -9830,9 +9827,7 @@
       <c r="AH249" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="AI249" s="6" t="s">
-        <v>651</v>
-      </c>
+      <c r="AI249" s="6"/>
       <c r="AJ249" s="6"/>
       <c r="AK249" s="6"/>
       <c r="AL249" s="6"/>
@@ -9841,7 +9836,7 @@
         <v>293</v>
       </c>
       <c r="AW249" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AX249" s="6"/>
       <c r="AY249" s="6"/>
@@ -9855,7 +9850,7 @@
         <v>602</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E250" s="1">
         <v>1</v>
@@ -9875,7 +9870,7 @@
         <v>624</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9901,7 +9896,7 @@
         <v>625</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9924,7 +9919,7 @@
         <v>617</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E253" s="1">
         <v>0</v>
@@ -9932,7 +9927,7 @@
       <c r="AV253" s="6"/>
       <c r="AW253" s="6"/>
       <c r="AX253" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="254" spans="1:52" ht="39.75" customHeight="1">
@@ -9940,13 +9935,13 @@
         <v>3072</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>716</v>
+        <v>784</v>
       </c>
       <c r="E254" s="1">
         <v>1</v>
@@ -9978,7 +9973,7 @@
         <v>618</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E255" s="1">
         <v>0</v>
@@ -9995,7 +9990,7 @@
         <v>619</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -10040,10 +10035,10 @@
         <v>3080</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E259" s="1">
         <v>2</v>
@@ -10057,10 +10052,10 @@
         <v>3081</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10071,10 +10066,10 @@
         <v>3082</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10085,10 +10080,10 @@
         <v>3083</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10099,10 +10094,10 @@
         <v>3084</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10134,10 +10129,10 @@
         <v>3085</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10169,10 +10164,10 @@
         <v>3086</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10204,10 +10199,10 @@
         <v>3087</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10239,10 +10234,10 @@
         <v>3088</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10274,10 +10269,10 @@
         <v>3089</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10309,10 +10304,10 @@
         <v>3090</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E269" s="1">
         <v>0</v>
@@ -10344,10 +10339,10 @@
         <v>3091</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E270" s="1">
         <v>1</v>
@@ -10379,10 +10374,10 @@
         <v>3092</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10393,10 +10388,10 @@
         <v>3093</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E272" s="1">
         <v>0</v>
@@ -10407,10 +10402,10 @@
         <v>3094</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10424,10 +10419,10 @@
         <v>3095</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E274" s="1">
         <v>2</v>
@@ -10459,10 +10454,10 @@
         <v>3096</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E275" s="1">
         <v>0</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8B565-5130-EA40-848E-77C02E405570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF94DC36-4432-2B4C-8647-1BE397FD9282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="789">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2851,6 +2851,18 @@
   </si>
   <si>
     <t>(SPR&gt;15)&amp;(MNY&gt;15)&amp;(CHR&gt;15)&amp;(STR&gt;15)&amp;(INT&gt;15)</t>
+  </si>
+  <si>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>3094</t>
+  </si>
+  <si>
+    <t>「核心」</t>
+  </si>
+  <si>
+    <t>苍蓝残响</t>
   </si>
 </sst>
 </file>
@@ -3267,13 +3279,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ275"/>
+  <dimension ref="A1:BJ276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G251" sqref="G251"/>
+      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -6030,8 +6042,12 @@
       <c r="E106" s="1">
         <v>2</v>
       </c>
-      <c r="AV106" s="6"/>
-      <c r="AW106" s="6"/>
+      <c r="AV106" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="AW106" s="6" t="s">
+        <v>786</v>
+      </c>
       <c r="AX106" s="6"/>
     </row>
     <row r="107" spans="1:50" ht="39.75" customHeight="1">
@@ -6050,8 +6066,12 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-      <c r="AV107" s="6"/>
-      <c r="AW107" s="6"/>
+      <c r="AV107" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="AW107" s="6" t="s">
+        <v>786</v>
+      </c>
       <c r="AX107" s="6"/>
     </row>
     <row r="108" spans="1:50" ht="39.75" customHeight="1">
@@ -10466,6 +10486,20 @@
         <v>1106</v>
       </c>
     </row>
+    <row r="276" spans="1:54" ht="39.75" customHeight="1">
+      <c r="A276" s="1">
+        <v>3097</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E276" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF94DC36-4432-2B4C-8647-1BE397FD9282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE65DA-D425-B248-9728-66C34C1D7C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="793">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2863,6 +2863,18 @@
   </si>
   <si>
     <t>苍蓝残响</t>
+  </si>
+  <si>
+    <t>月之记忆</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>全属性+40，加一命</t>
   </si>
 </sst>
 </file>
@@ -3282,10 +3294,10 @@
   <dimension ref="A1:BJ276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
+      <selection pane="bottomRight" activeCell="N273" sqref="N273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3972,6 +3984,15 @@
       <c r="AY16" s="1">
         <v>3012</v>
       </c>
+      <c r="AZ16" s="1">
+        <v>3008</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>3009</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>3010</v>
+      </c>
     </row>
     <row r="17" spans="1:51" ht="39.75" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -6976,7 +6997,9 @@
       <c r="E149" s="1">
         <v>3</v>
       </c>
-      <c r="AV149" s="6"/>
+      <c r="AV149" s="6" t="s">
+        <v>790</v>
+      </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
     </row>
@@ -8496,16 +8519,18 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>596</v>
+        <v>789</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>596</v>
+        <v>792</v>
       </c>
       <c r="E204" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV204" s="6"/>
-      <c r="AW204" s="6"/>
+      <c r="AW204" s="6" t="s">
+        <v>791</v>
+      </c>
       <c r="AX204" s="6"/>
     </row>
     <row r="205" spans="1:53" ht="39.75" customHeight="1">

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C8757-08C8-F245-A8E1-8347C61DD4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85399E5-CF85-5C40-B14B-A1687B32F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,7 +3291,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H192" sqref="H192"/>
+      <selection pane="bottomRight" activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85399E5-CF85-5C40-B14B-A1687B32F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3455F842-3A23-D448-9371-12B5EB299C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="791">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G193" sqref="G193"/>
+      <selection pane="bottomRight" activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -8476,7 +8476,9 @@
       <c r="AV201" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AW201" s="6"/>
+      <c r="AW201" s="1">
+        <v>3095</v>
+      </c>
       <c r="AX201" s="6"/>
     </row>
     <row r="202" spans="1:54" ht="39.75" customHeight="1">
@@ -10469,7 +10471,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="273" spans="1:55" ht="39.75" customHeight="1">
+    <row r="273" spans="1:56" ht="39.75" customHeight="1">
       <c r="A273" s="1">
         <v>3095</v>
       </c>
@@ -10506,8 +10508,11 @@
       <c r="BC273" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="274" spans="1:55" ht="39.75" customHeight="1">
+      <c r="BD273" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:56" ht="39.75" customHeight="1">
       <c r="A274" s="1">
         <v>3096</v>
       </c>
@@ -10524,7 +10529,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="275" spans="1:55" ht="39.75" customHeight="1">
+    <row r="275" spans="1:56" ht="39.75" customHeight="1">
       <c r="A275" s="1">
         <v>3097</v>
       </c>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA870E-9D0B-CE4B-8847-6B49C7F5DF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA3622-D888-0A46-B497-70BC882FD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,7 +3291,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA3622-D888-0A46-B497-70BC882FD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4C773-295C-284A-9EF2-580739A111D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H197" sqref="H197"/>
+      <selection pane="bottomRight" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4C773-295C-284A-9EF2-580739A111D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C9D76-9F91-3A4D-8883-A315C793FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="789">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2848,12 +2848,6 @@
   </si>
   <si>
     <t>3094</t>
-  </si>
-  <si>
-    <t>「核心」</t>
-  </si>
-  <si>
-    <t>苍蓝残响</t>
   </si>
   <si>
     <t>月之记忆</t>
@@ -3285,13 +3279,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ275"/>
+  <dimension ref="A1:BJ274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C214" sqref="C214"/>
+      <selection pane="bottomRight" activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -7004,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="AV149" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
@@ -8468,7 +8462,7 @@
         <v>528</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -8539,17 +8533,17 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="AV204" s="6"/>
       <c r="AW204" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AX204" s="6"/>
     </row>
@@ -10529,20 +10523,6 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="275" spans="1:56" ht="39.75" customHeight="1">
-      <c r="A275" s="1">
-        <v>3097</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E275" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD84658-9D9D-3444-875A-A3FE79488FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE9B70-28FE-CF41-B262-F59B905C174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE9B70-28FE-CF41-B262-F59B905C174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ED96E7-9385-7043-8563-41B0B1C129B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3282,10 +3282,10 @@
   <dimension ref="A1:BJ274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomRight" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297E9BE4-8CE5-AA4A-99B3-DB21FA2D1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB154E-E076-DC40-B870-23F179058A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="791">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2863,6 +2863,12 @@
   </si>
   <si>
     <t>"全属性+13，免疫第一次死亡"</t>
+  </si>
+  <si>
+    <t>一封信</t>
+  </si>
+  <si>
+    <t>一些话</t>
   </si>
 </sst>
 </file>
@@ -3279,13 +3285,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ274"/>
+  <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G136" sqref="G136"/>
+      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -10523,6 +10529,20 @@
         <v>1106</v>
       </c>
     </row>
+    <row r="275" spans="1:56" ht="39.75" customHeight="1">
+      <c r="A275" s="1">
+        <v>3097</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E275" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55098D1-7D04-D442-9711-5B898A7ACC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0939B-8311-5F4D-A500-92AC2E3443F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,7 +3291,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9475AF92-40D9-644B-B6F1-06A21805852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15509742-6255-C64D-9366-9F4E8A8B3DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2031,9 +2031,6 @@
     <t>你出生自带一枚宝玉</t>
   </si>
   <si>
-    <t>入坑收尾人的可能性翻6倍</t>
-  </si>
-  <si>
     <t>大湖之主</t>
   </si>
   <si>
@@ -2064,9 +2061,6 @@
     <t>平凡</t>
   </si>
   <si>
-    <t>初始属性-4，附带神秘小礼物</t>
-  </si>
-  <si>
     <t xml:space="preserve">你会成为收尾人 </t>
   </si>
   <si>
@@ -2869,6 +2863,12 @@
   </si>
   <si>
     <t>我的一些......话</t>
+  </si>
+  <si>
+    <t>入坑收尾人的可能性翻10倍</t>
+  </si>
+  <si>
+    <t>初始属性-4 附带神秘小礼物</t>
   </si>
 </sst>
 </file>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G117" sqref="G117"/>
+      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3319,7 +3319,7 @@
         <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>184</v>
@@ -3775,7 +3775,7 @@
         <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>511</v>
+        <v>789</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3869,10 +3869,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3898,7 +3898,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3996,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>133</v>
@@ -4027,10 +4027,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>162</v>
@@ -4292,16 +4292,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4392,7 +4392,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4496,10 +4496,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4530,7 +4530,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4549,7 +4549,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>470</v>
@@ -4586,7 +4586,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4655,10 +4655,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4707,7 +4707,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4730,7 +4730,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>439</v>
@@ -4756,7 +4756,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>440</v>
@@ -4779,7 +4779,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>441</v>
@@ -5033,7 +5033,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>505</v>
@@ -5053,7 +5053,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
@@ -5070,13 +5070,13 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>194</v>
@@ -5165,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>444</v>
@@ -5188,10 +5188,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -5222,10 +5222,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -5285,7 +5285,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>446</v>
@@ -5308,7 +5308,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>447</v>
@@ -5331,7 +5331,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5354,7 +5354,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>427</v>
@@ -5400,7 +5400,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>448</v>
@@ -5435,7 +5435,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5467,7 +5467,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5514,7 +5514,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5541,7 +5541,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5565,7 +5565,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5620,7 +5620,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>221</v>
@@ -5814,7 +5814,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>452</v>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>454</v>
@@ -5933,10 +5933,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>232</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -6058,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="AV106" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AW106" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AX106" s="6"/>
     </row>
@@ -6073,19 +6073,19 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="AV107" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AW107" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AX107" s="6"/>
     </row>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6267,10 +6267,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -6284,10 +6284,10 @@
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -6301,10 +6301,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>490</v>
@@ -6421,10 +6421,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>282</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>301</v>
@@ -6556,7 +6556,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6602,7 +6602,7 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>310</v>
@@ -6619,10 +6619,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6673,13 +6673,13 @@
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -7004,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="AV149" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
@@ -8122,10 +8122,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8142,10 +8142,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8162,10 +8162,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8182,10 +8182,10 @@
         <v>3004</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>522</v>
+        <v>790</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -8197,7 +8197,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8206,10 +8206,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8223,10 +8223,10 @@
         <v>3006</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -8242,10 +8242,10 @@
         <v>3007</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8259,22 +8259,22 @@
         <v>3008</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
       </c>
       <c r="AV194" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AW194" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="AW194" s="6" t="s">
-        <v>594</v>
-      </c>
       <c r="AX194" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
@@ -8288,22 +8288,22 @@
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
       </c>
       <c r="AV195" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AW195" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AX195" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
@@ -8317,22 +8317,22 @@
         <v>3010</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="AV196" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AW196" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
@@ -8346,10 +8346,10 @@
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8363,16 +8363,16 @@
         <v>3012</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
       <c r="AV198" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AW198" s="1">
         <v>3008</v>
@@ -8398,10 +8398,10 @@
         <v>3013</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8433,10 +8433,10 @@
         <v>3014</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E200" s="1">
         <v>0</v>
@@ -8451,10 +8451,10 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8465,16 +8465,16 @@
         <v>3015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="AV201" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AW201" s="1">
         <v>3095</v>
@@ -8486,16 +8486,16 @@
         <v>3016</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
       </c>
       <c r="AV202" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AW202" s="1">
         <v>3095</v>
@@ -8507,10 +8507,10 @@
         <v>3017</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8539,17 +8539,17 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="AV204" s="6"/>
       <c r="AW204" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AX204" s="6"/>
     </row>
@@ -8558,10 +8558,10 @@
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8578,13 +8578,13 @@
         <v>3020</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -8606,13 +8606,13 @@
         <v>3021</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -8634,13 +8634,13 @@
         <v>3022</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -8662,13 +8662,13 @@
         <v>3023</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -8690,13 +8690,13 @@
         <v>3024</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E210" s="1">
         <v>2</v>
@@ -8718,13 +8718,13 @@
         <v>3025</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E211" s="1">
         <v>2</v>
@@ -8746,13 +8746,13 @@
         <v>3026</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E212" s="1">
         <v>2</v>
@@ -8774,10 +8774,10 @@
         <v>3027</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>204</v>
@@ -8802,10 +8802,10 @@
         <v>3028</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E214" s="1">
         <v>0</v>
@@ -8819,10 +8819,10 @@
         <v>3029</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -8836,10 +8836,10 @@
         <v>3030</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8873,10 +8873,10 @@
         <v>3033</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -8893,10 +8893,10 @@
         <v>3034</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8913,10 +8913,10 @@
         <v>3035</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>3037</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -8950,10 +8950,10 @@
         <v>3039</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E222" s="1">
         <v>2</v>
@@ -8967,10 +8967,10 @@
         <v>3040</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E223" s="1">
         <v>0</v>
@@ -8984,10 +8984,10 @@
         <v>3041</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -9001,10 +9001,10 @@
         <v>3042</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>3043</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E226" s="1">
         <v>2</v>
@@ -9038,10 +9038,10 @@
         <v>3044</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E227" s="1">
         <v>0</v>
@@ -9085,10 +9085,10 @@
         <v>3045</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>3046</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>3047</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9226,10 +9226,10 @@
         <v>3048</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9273,10 +9273,10 @@
         <v>3049</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9320,10 +9320,10 @@
         <v>3050</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9367,10 +9367,10 @@
         <v>3051</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9414,10 +9414,10 @@
         <v>3052</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>3053</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9508,10 +9508,10 @@
         <v>3054</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9555,10 +9555,10 @@
         <v>3055</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9602,10 +9602,10 @@
         <v>3056</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -9628,10 +9628,10 @@
         <v>3057</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E240" s="1">
         <v>0</v>
@@ -9654,10 +9654,10 @@
         <v>3058</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9680,10 +9680,10 @@
         <v>3059</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9706,10 +9706,10 @@
         <v>3060</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>3061</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E244" s="1">
         <v>2</v>
@@ -9755,10 +9755,10 @@
         <v>3062</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E245" s="1">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>508</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -9799,10 +9799,10 @@
         <v>3064</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -9816,10 +9816,10 @@
         <v>3065</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E248" s="1">
         <v>2</v>
@@ -9876,13 +9876,13 @@
         <v>3035</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AG248" s="1">
         <v>3069</v>
       </c>
       <c r="AH248" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AI248" s="6"/>
       <c r="AJ248" s="6"/>
@@ -9893,7 +9893,7 @@
         <v>293</v>
       </c>
       <c r="AW248" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX248" s="6"/>
       <c r="AY248" s="6"/>
@@ -9904,10 +9904,10 @@
         <v>3066</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E249" s="1">
         <v>1</v>
@@ -9921,13 +9921,13 @@
         <v>3068</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
@@ -9947,13 +9947,13 @@
         <v>3069</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9973,10 +9973,10 @@
         <v>3071</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9984,7 +9984,7 @@
       <c r="AV252" s="6"/>
       <c r="AW252" s="6"/>
       <c r="AX252" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="253" spans="1:52" ht="39.75" customHeight="1">
@@ -9992,13 +9992,13 @@
         <v>3072</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E253" s="1">
         <v>1</v>
@@ -10027,10 +10027,10 @@
         <v>3074</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E254" s="1">
         <v>0</v>
@@ -10044,10 +10044,10 @@
         <v>3077</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E255" s="1">
         <v>1</v>
@@ -10058,10 +10058,10 @@
         <v>3078</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -10075,10 +10075,10 @@
         <v>3079</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -10092,10 +10092,10 @@
         <v>3080</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E258" s="1">
         <v>2</v>
@@ -10109,10 +10109,10 @@
         <v>3081</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E259" s="1">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>3082</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10137,10 +10137,10 @@
         <v>3083</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>3084</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>3085</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10221,10 +10221,10 @@
         <v>3086</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10256,10 +10256,10 @@
         <v>3087</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10291,10 +10291,10 @@
         <v>3088</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10326,10 +10326,10 @@
         <v>3089</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>3090</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10396,10 +10396,10 @@
         <v>3091</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
@@ -10431,10 +10431,10 @@
         <v>3092</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E270" s="1">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>3093</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10459,10 +10459,10 @@
         <v>3094</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E272" s="1">
         <v>2</v>
@@ -10476,10 +10476,10 @@
         <v>3095</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10509,7 +10509,7 @@
         <v>306</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="274" spans="1:56" ht="39.75" customHeight="1">
@@ -10517,10 +10517,10 @@
         <v>3096</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E274" s="1">
         <v>0</v>
@@ -10534,10 +10534,10 @@
         <v>3097</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E275" s="1">
         <v>4</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE24938-5511-584C-AEC7-FAB42DFE4AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A91C1-954E-A540-A647-CC83DE614C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A47C30-D568-AD46-802A-7D2C76BB9097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9AB98-AEE1-D24B-BF02-F2952E113077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3294,7 +3294,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F199" sqref="F199"/>
+      <selection pane="bottomRight" activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D986BC1-DC36-DB46-B196-2A541009EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F042E4-B0DE-8548-A271-4BA60402A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,10 +3291,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AV261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AT261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX270" sqref="AX270"/>
+      <selection pane="bottomRight" activeCell="AU271" sqref="AU271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F042E4-B0DE-8548-A271-4BA60402A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECBE26-2CEB-4643-BE3D-1DB426C08897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="792">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3291,10 +3291,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AT261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BB266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU271" sqref="AU271"/>
+      <selection pane="bottomRight" activeCell="BF275" sqref="BF275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -6264,7 +6264,9 @@
       <c r="E116" s="1">
         <v>3</v>
       </c>
-      <c r="AV116" s="6"/>
+      <c r="AV116" s="6" t="s">
+        <v>777</v>
+      </c>
       <c r="AW116" s="6"/>
       <c r="AX116" s="6"/>
     </row>
@@ -6887,7 +6889,9 @@
       <c r="N146" s="1">
         <v>3</v>
       </c>
-      <c r="AV146" s="6"/>
+      <c r="AV146" s="6" t="s">
+        <v>777</v>
+      </c>
       <c r="AW146" s="6"/>
       <c r="AX146" s="6"/>
     </row>
@@ -10494,7 +10498,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="273" spans="1:57" ht="39.75" customHeight="1">
+    <row r="273" spans="1:59" ht="39.75" customHeight="1">
       <c r="A273" s="1">
         <v>3095</v>
       </c>
@@ -10537,8 +10541,14 @@
       <c r="BE273" s="1">
         <v>3080</v>
       </c>
-    </row>
-    <row r="274" spans="1:57" ht="39.75" customHeight="1">
+      <c r="BF273" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG273" s="1">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="274" spans="1:59" ht="39.75" customHeight="1">
       <c r="A274" s="1">
         <v>3096</v>
       </c>
@@ -10555,7 +10565,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="275" spans="1:57" ht="39.75" customHeight="1">
+    <row r="275" spans="1:59" ht="39.75" customHeight="1">
       <c r="A275" s="1">
         <v>3097</v>
       </c>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECBE26-2CEB-4643-BE3D-1DB426C08897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32940E7D-3B6A-6342-8C85-270EF182208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2853,9 +2853,6 @@
     <t>一封信</t>
   </si>
   <si>
-    <t>我的一些......话</t>
-  </si>
-  <si>
     <t>入坑收尾人的可能性翻10倍</t>
   </si>
   <si>
@@ -2872,6 +2869,9 @@
   </si>
   <si>
     <t>成为收尾人则必定加入Shi协会</t>
+  </si>
+  <si>
+    <t>我的一些......'真心'话</t>
   </si>
 </sst>
 </file>
@@ -3291,10 +3291,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BB266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF275" sqref="BF275"/>
+      <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3778,7 +3778,7 @@
         <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -8195,7 +8195,7 @@
         <v>517</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="AV223" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AW223" s="6"/>
       <c r="AX223" s="6"/>
@@ -9016,7 +9016,7 @@
         <v>626</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -9191,10 +9191,10 @@
         <v>3047</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>784</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E275" s="1">
         <v>4</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32940E7D-3B6A-6342-8C85-270EF182208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0E561-5C8E-F94F-8FD5-255D7986D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0E561-5C8E-F94F-8FD5-255D7986D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65EB08B-1EE1-8948-83AC-41755AAF5C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,7 +3291,7 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
